--- a/data/State Attribute Type.xlsx
+++ b/data/State Attribute Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showBorderUnselectedTables="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\A249\LUCAS Base Model - Template Dev\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stsimcbmcfs3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FDAF77-26F8-44AF-8354-5249F091E263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4B41F8-9C1F-40E5-916A-78DF0662AA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5745" windowWidth="15990" windowHeight="24840" firstSheet="3" activeTab="3" xr2:uid="{BA70431F-CA52-41D6-ABEF-43FD7DF93F93}"/>
+    <workbookView xWindow="6825" yWindow="3315" windowWidth="14505" windowHeight="11220" firstSheet="3" activeTab="3" xr2:uid="{BA70431F-CA52-41D6-ABEF-43FD7DF93F93}"/>
   </bookViews>
   <sheets>
     <sheet name="stsim_AttributeGroup" sheetId="3" state="hidden" r:id="rId1"/>
@@ -766,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
